--- a/config_hlw/sys_task_management_type_1_config.xlsx
+++ b/config_hlw/sys_task_management_type_1_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -320,6 +320,12 @@
   <si>
     <t>ty_icon_jb_50y</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition|进度</t>
+  </si>
+  <si>
+    <t>award_progress_lv|奖励阶段等级</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,6 +430,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,7 +494,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,7 +529,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,22 +738,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+      <selection activeCell="H1" sqref="H1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
-    <col min="5" max="5" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="31.875" customWidth="1"/>
+    <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -755,16 +766,20 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -777,8 +792,9 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -788,17 +804,21 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
+        <v>50000</v>
+      </c>
+      <c r="E2" s="6">
         <v>200</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -811,28 +831,33 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>12502</v>
+        <v>12501</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
+        <v>150000</v>
+      </c>
+      <c r="E3" s="6">
         <v>500</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -845,28 +870,33 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>12503</v>
+        <v>12501</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
+        <v>300000</v>
+      </c>
+      <c r="E4" s="6">
         <v>600</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -879,28 +909,33 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>12504</v>
+        <v>12501</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
+        <v>700000</v>
+      </c>
+      <c r="E5" s="6">
         <v>800</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -913,28 +948,33 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>12505</v>
+        <v>12501</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="E6" s="6">
         <v>1000</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -947,28 +987,33 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>12506</v>
+        <v>12501</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
+        <v>1500000</v>
+      </c>
+      <c r="E7" s="6">
         <v>1500</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -981,28 +1026,33 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>12507</v>
+        <v>12501</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="E8" s="6">
         <v>0.1</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>7</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1015,28 +1065,33 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>12508</v>
+        <v>12501</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="E9" s="6">
         <v>0.5</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1049,28 +1104,33 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>12509</v>
+        <v>12501</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
+        <v>30000000</v>
+      </c>
+      <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>9</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1083,28 +1143,33 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>12510</v>
+        <v>12501</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
+        <v>60000000</v>
+      </c>
+      <c r="E11" s="6">
         <v>4</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1117,28 +1182,33 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>12511</v>
+        <v>12501</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
+        <v>100000000</v>
+      </c>
+      <c r="E12" s="6">
         <v>5</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>11</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1151,28 +1221,33 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>12512</v>
+        <v>12501</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
+        <v>250000000</v>
+      </c>
+      <c r="E13" s="6">
         <v>10</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>12</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1185,28 +1260,33 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>12513</v>
+        <v>12501</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
+        <v>500000000</v>
+      </c>
+      <c r="E14" s="6">
         <v>20</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>13</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1219,28 +1299,33 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>12514</v>
+        <v>12501</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
+        <v>1000000000</v>
+      </c>
+      <c r="E15" s="6">
         <v>30</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>14</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1253,28 +1338,33 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>12515</v>
+        <v>12501</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
+        <v>1500000000</v>
+      </c>
+      <c r="E16" s="6">
         <v>50</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>15</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1287,8 +1377,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1309,8 +1400,9 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1331,8 +1423,9 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1353,8 +1446,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1375,8 +1469,9 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1397,8 +1492,9 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1419,8 +1515,9 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1441,8 +1538,9 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1463,8 +1561,9 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1485,8 +1584,9 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1507,8 +1607,9 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1529,8 +1630,9 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1551,8 +1653,9 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1573,8 +1676,9 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1595,8 +1699,9 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1617,8 +1722,9 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1639,8 +1745,9 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1661,8 +1768,9 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1683,6 +1791,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1693,22 +1802,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+      <selection activeCell="H1" sqref="H1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
-    <col min="5" max="5" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="31.875" customWidth="1"/>
+    <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1719,16 +1829,20 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1741,8 +1855,9 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1752,17 +1867,21 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="8">
         <v>600</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1775,8 +1894,9 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1786,17 +1906,21 @@
       <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
+        <v>500000</v>
+      </c>
+      <c r="E3" s="8">
         <v>2000</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1809,8 +1933,9 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1820,17 +1945,21 @@
       <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="E4" s="8">
         <v>5000</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1843,8 +1972,9 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1854,17 +1984,21 @@
       <c r="C5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
+        <v>8000000</v>
+      </c>
+      <c r="E5" s="8">
         <v>8000</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1877,8 +2011,9 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1888,17 +2023,21 @@
       <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="E6" s="8">
         <v>0.5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1911,8 +2050,9 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1922,17 +2062,21 @@
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
+        <v>80000000</v>
+      </c>
+      <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1945,8 +2089,9 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1956,17 +2101,21 @@
       <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
+        <v>200000000</v>
+      </c>
+      <c r="E8" s="8">
         <v>10</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>7</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1979,8 +2128,9 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1990,17 +2140,21 @@
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
+        <v>800000000</v>
+      </c>
+      <c r="E9" s="8">
         <v>18</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -2013,8 +2167,9 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2024,17 +2179,21 @@
       <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
+        <v>2000000000</v>
+      </c>
+      <c r="E10" s="8">
         <v>68</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>9</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -2047,8 +2206,9 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2058,17 +2218,21 @@
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
+        <v>5000000000</v>
+      </c>
+      <c r="E11" s="8">
         <v>108</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -2081,8 +2245,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2092,17 +2257,21 @@
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
+        <v>8000000000</v>
+      </c>
+      <c r="E12" s="8">
         <v>388</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>11</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -2115,8 +2284,9 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2126,17 +2296,21 @@
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
+        <v>15000000000</v>
+      </c>
+      <c r="E13" s="8">
         <v>588</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>12</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -2149,8 +2323,9 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2160,17 +2335,21 @@
       <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
+        <v>20000000000</v>
+      </c>
+      <c r="E14" s="8">
         <v>888</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>13</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -2183,8 +2362,9 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2194,17 +2374,21 @@
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
+        <v>30000000000</v>
+      </c>
+      <c r="E15" s="8">
         <v>1888</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>14</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -2217,8 +2401,9 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2228,17 +2413,21 @@
       <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
+        <v>50000000000</v>
+      </c>
+      <c r="E16" s="8">
         <v>2888</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>15</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -2251,8 +2440,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2273,8 +2463,9 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2295,8 +2486,9 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2317,8 +2509,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2339,8 +2532,9 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2361,8 +2555,9 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2383,8 +2578,9 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2405,8 +2601,9 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2427,8 +2624,9 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2449,8 +2647,9 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2471,8 +2670,9 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2493,8 +2693,9 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2515,8 +2716,9 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2537,8 +2739,9 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2559,8 +2762,9 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2581,8 +2785,9 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2603,8 +2808,9 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2625,8 +2831,9 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2647,6 +2854,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2657,22 +2865,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="A1:F16"/>
+      <selection activeCell="H1" sqref="H1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
-    <col min="5" max="5" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="31.875" customWidth="1"/>
+    <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2683,16 +2892,20 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2705,8 +2918,9 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2716,17 +2930,21 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
+        <v>100</v>
+      </c>
+      <c r="E2" s="6">
         <v>2000</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -2739,8 +2957,9 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2750,17 +2969,21 @@
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
+        <v>300</v>
+      </c>
+      <c r="E3" s="6">
         <v>2500</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2773,8 +2996,9 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2784,17 +3008,21 @@
       <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
+        <v>800</v>
+      </c>
+      <c r="E4" s="6">
         <v>5000</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2807,8 +3035,9 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2818,17 +3047,21 @@
       <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E5" s="6">
         <v>6000</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2841,8 +3074,9 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2852,17 +3086,21 @@
       <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E6" s="6">
         <v>0.6</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -2875,8 +3113,9 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2886,17 +3125,21 @@
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
+        <v>6500</v>
+      </c>
+      <c r="E7" s="6">
         <v>1.5</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -2909,8 +3152,9 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2920,17 +3164,21 @@
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
+        <v>12000</v>
+      </c>
+      <c r="E8" s="6">
         <v>2.5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>7</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -2943,8 +3191,9 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2954,17 +3203,21 @@
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="6">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -2977,8 +3230,9 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2988,17 +3242,21 @@
       <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
+        <v>25000</v>
+      </c>
+      <c r="E10" s="6">
         <v>3</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>9</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3011,8 +3269,9 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3022,17 +3281,21 @@
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3045,8 +3308,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3056,17 +3320,21 @@
       <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
+        <v>50000</v>
+      </c>
+      <c r="E12" s="6">
         <v>4</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>11</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3079,8 +3347,9 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3090,17 +3359,21 @@
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
+        <v>100000</v>
+      </c>
+      <c r="E13" s="6">
         <v>4</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>12</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -3113,8 +3386,9 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3124,17 +3398,21 @@
       <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
+        <v>160000</v>
+      </c>
+      <c r="E14" s="6">
         <v>6</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>13</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -3147,8 +3425,9 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3158,17 +3437,21 @@
       <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
+        <v>230000</v>
+      </c>
+      <c r="E15" s="6">
         <v>8</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>14</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -3181,8 +3464,9 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3192,17 +3476,21 @@
       <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
+        <v>500000</v>
+      </c>
+      <c r="E16" s="6">
         <v>18</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>15</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -3215,8 +3503,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3237,8 +3526,9 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3259,8 +3549,9 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3281,8 +3572,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3303,8 +3595,9 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3325,8 +3618,9 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3347,8 +3641,9 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3369,8 +3664,9 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3391,8 +3687,9 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3413,8 +3710,9 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3435,8 +3733,9 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3457,8 +3756,9 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3479,8 +3779,9 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3501,8 +3802,9 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3523,8 +3825,9 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3545,8 +3848,9 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3567,8 +3871,9 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3589,8 +3894,9 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3611,6 +3917,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3621,22 +3928,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H1" sqref="H1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="31.875" customWidth="1"/>
+    <col min="6" max="6" width="27.625" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3647,16 +3955,20 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3669,8 +3981,9 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3680,17 +3993,21 @@
       <c r="C2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
+        <v>500</v>
+      </c>
+      <c r="E2" s="8">
         <v>5000</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3703,8 +4020,9 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3714,17 +4032,21 @@
       <c r="C3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="8">
         <v>8000</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -3737,8 +4059,9 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3748,17 +4071,21 @@
       <c r="C4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="8">
         <v>40000</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -3771,8 +4098,9 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3782,17 +4110,21 @@
       <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
+        <v>30000</v>
+      </c>
+      <c r="E5" s="8">
         <v>16</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -3805,8 +4137,9 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3816,17 +4149,21 @@
       <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
+        <v>70000</v>
+      </c>
+      <c r="E6" s="8">
         <v>16</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -3839,8 +4176,9 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3850,17 +4188,21 @@
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
+        <v>150000</v>
+      </c>
+      <c r="E7" s="8">
         <v>26</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -3873,8 +4215,9 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3884,17 +4227,21 @@
       <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
+        <v>250000</v>
+      </c>
+      <c r="E8" s="8">
         <v>56</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>7</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3907,8 +4254,9 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3918,17 +4266,21 @@
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
+        <v>400000</v>
+      </c>
+      <c r="E9" s="8">
         <v>66</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3941,8 +4293,9 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3952,17 +4305,21 @@
       <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
+        <v>550000</v>
+      </c>
+      <c r="E10" s="8">
         <v>76</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>9</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3975,8 +4332,9 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3986,17 +4344,21 @@
       <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="E11" s="8">
         <v>118</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -4009,8 +4371,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4020,17 +4383,21 @@
       <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="E12" s="8">
         <v>188</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>11</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -4043,8 +4410,9 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4054,17 +4422,21 @@
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
+        <v>3500000</v>
+      </c>
+      <c r="E13" s="8">
         <v>388</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>12</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -4077,8 +4449,9 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4088,17 +4461,21 @@
       <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
+        <v>6000000</v>
+      </c>
+      <c r="E14" s="8">
         <v>666</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>13</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4111,8 +4488,9 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4122,17 +4500,21 @@
       <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
+        <v>8000000</v>
+      </c>
+      <c r="E15" s="8">
         <v>888</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>14</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -4145,8 +4527,9 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4156,17 +4539,21 @@
       <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="E16" s="8">
         <v>1000</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>15</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -4179,8 +4566,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4201,8 +4589,9 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4223,8 +4612,9 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4245,8 +4635,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4267,8 +4658,9 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4289,8 +4681,9 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4311,8 +4704,9 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4333,8 +4727,9 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4355,8 +4750,9 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4377,8 +4773,9 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4399,8 +4796,9 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4421,8 +4819,9 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4443,8 +4842,9 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4465,8 +4865,9 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4487,8 +4888,9 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4509,8 +4911,9 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4531,8 +4934,9 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4553,8 +4957,9 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4575,6 +4980,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_hlw/sys_task_management_type_1_config.xlsx
+++ b/config_hlw/sys_task_management_type_1_config.xlsx
@@ -741,7 +741,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H16"/>
+      <selection activeCell="E8" sqref="E8:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1805,7 +1805,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H16"/>
+      <selection activeCell="E6" sqref="E6:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>12516</v>
+        <v>12502</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
@@ -1901,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>12517</v>
+        <v>12502</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>24</v>
@@ -1940,7 +1940,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>12518</v>
+        <v>12502</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>24</v>
@@ -1979,7 +1979,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>12519</v>
+        <v>12502</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>44</v>
@@ -2018,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>12520</v>
+        <v>12502</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>25</v>
@@ -2057,7 +2057,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>12521</v>
+        <v>12502</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>25</v>
@@ -2096,7 +2096,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>12522</v>
+        <v>12502</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
@@ -2135,7 +2135,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>12523</v>
+        <v>12502</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -2174,7 +2174,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>12524</v>
+        <v>12502</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>26</v>
@@ -2213,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7">
-        <v>12525</v>
+        <v>12502</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
@@ -2252,7 +2252,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7">
-        <v>12526</v>
+        <v>12502</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>26</v>
@@ -2291,7 +2291,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7">
-        <v>12527</v>
+        <v>12502</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
@@ -2330,7 +2330,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7">
-        <v>12528</v>
+        <v>12502</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
@@ -2369,7 +2369,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7">
-        <v>12529</v>
+        <v>12502</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
@@ -2408,7 +2408,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7">
-        <v>12530</v>
+        <v>12502</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
@@ -2868,7 +2868,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H16"/>
+      <selection activeCell="E6" sqref="E6:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>12531</v>
+        <v>12503</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
@@ -2964,7 +2964,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>12532</v>
+        <v>12503</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
@@ -3003,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>12533</v>
+        <v>12503</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>24</v>
@@ -3042,7 +3042,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>12534</v>
+        <v>12503</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -3081,7 +3081,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>12535</v>
+        <v>12503</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>25</v>
@@ -3120,7 +3120,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>12536</v>
+        <v>12503</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>25</v>
@@ -3159,7 +3159,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>12537</v>
+        <v>12503</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>25</v>
@@ -3198,7 +3198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>12538</v>
+        <v>12503</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -3237,7 +3237,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>12539</v>
+        <v>12503</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>26</v>
@@ -3276,7 +3276,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>12540</v>
+        <v>12503</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
@@ -3315,7 +3315,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>12541</v>
+        <v>12503</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
@@ -3354,7 +3354,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>12542</v>
+        <v>12503</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
@@ -3393,7 +3393,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>12543</v>
+        <v>12503</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>28</v>
@@ -3432,7 +3432,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>12544</v>
+        <v>12503</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>28</v>
@@ -3471,7 +3471,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>12545</v>
+        <v>12503</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
@@ -3931,7 +3931,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H16"/>
+      <selection activeCell="E5" sqref="E5:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>12546</v>
+        <v>12504</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>76</v>
@@ -4027,7 +4027,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>12547</v>
+        <v>12504</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>75</v>
@@ -4066,7 +4066,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>12548</v>
+        <v>12504</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>74</v>
@@ -4105,7 +4105,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>12549</v>
+        <v>12504</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>25</v>
@@ -4144,7 +4144,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>12550</v>
+        <v>12504</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>25</v>
@@ -4183,7 +4183,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>12551</v>
+        <v>12504</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>25</v>
@@ -4222,7 +4222,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7">
-        <v>12552</v>
+        <v>12504</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
@@ -4261,7 +4261,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>12553</v>
+        <v>12504</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -4300,7 +4300,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>12554</v>
+        <v>12504</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>26</v>
@@ -4339,7 +4339,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7">
-        <v>12555</v>
+        <v>12504</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>27</v>
@@ -4378,7 +4378,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7">
-        <v>12556</v>
+        <v>12504</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
@@ -4417,7 +4417,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7">
-        <v>12557</v>
+        <v>12504</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
@@ -4456,7 +4456,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7">
-        <v>12558</v>
+        <v>12504</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>28</v>
@@ -4495,7 +4495,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7">
-        <v>12559</v>
+        <v>12504</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>28</v>
@@ -4534,7 +4534,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7">
-        <v>12560</v>
+        <v>12504</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>

--- a/config_hlw/sys_task_management_type_1_config.xlsx
+++ b/config_hlw/sys_task_management_type_1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config1|金币场每日" sheetId="1" r:id="rId1"/>
@@ -242,18 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>福卡场累计获得福卡1600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福卡场累计获得福卡2300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福卡场累计获得福卡5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>福卡场累计获得福卡5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,6 +314,18 @@
   </si>
   <si>
     <t>award_progress_lv|奖励阶段等级</t>
+  </si>
+  <si>
+    <t>福卡场累计获得福卡0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福卡场累计获得福卡0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福卡场累计获得福卡2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -766,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -778,7 +778,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1829,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1841,7 +1841,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -2867,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" activeCellId="1" sqref="C2:H7 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2892,7 +2892,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2904,7 +2904,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -2931,13 +2931,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6">
         <v>100</v>
       </c>
-      <c r="E2" s="6">
-        <v>2000</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>22</v>
@@ -2970,13 +2970,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="4">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E3" s="6">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>22</v>
@@ -3009,13 +3009,13 @@
         <v>24</v>
       </c>
       <c r="D4" s="4">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E4" s="6">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>22</v>
@@ -3048,13 +3048,13 @@
         <v>24</v>
       </c>
       <c r="D5" s="4">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="E5" s="6">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>22</v>
@@ -3083,17 +3083,17 @@
       <c r="B6" s="4">
         <v>12503</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="4">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="E6" s="6">
-        <v>0.6</v>
+        <v>5000</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>22</v>
@@ -3122,17 +3122,17 @@
       <c r="B7" s="4">
         <v>12503</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="4">
-        <v>6500</v>
+        <v>1500</v>
       </c>
       <c r="E7" s="6">
-        <v>1.5</v>
+        <v>6000</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>22</v>
@@ -3165,13 +3165,13 @@
         <v>25</v>
       </c>
       <c r="D8" s="4">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="E8" s="6">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>22</v>
@@ -3204,13 +3204,13 @@
         <v>26</v>
       </c>
       <c r="D9" s="4">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="E9" s="6">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>22</v>
@@ -3243,13 +3243,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="4">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="E10" s="6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>22</v>
@@ -3282,13 +3282,13 @@
         <v>26</v>
       </c>
       <c r="D11" s="4">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="E11" s="6">
         <v>3</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>22</v>
@@ -3321,13 +3321,13 @@
         <v>27</v>
       </c>
       <c r="D12" s="4">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="E12" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>22</v>
@@ -3360,13 +3360,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="4">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="E13" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>22</v>
@@ -3399,13 +3399,13 @@
         <v>28</v>
       </c>
       <c r="D14" s="4">
-        <v>160000</v>
+        <v>50000</v>
       </c>
       <c r="E14" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>22</v>
@@ -3438,13 +3438,13 @@
         <v>28</v>
       </c>
       <c r="D15" s="4">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="E15" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>22</v>
@@ -3477,13 +3477,13 @@
         <v>28</v>
       </c>
       <c r="D16" s="4">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="E16" s="6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>22</v>
@@ -3930,7 +3930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5:E16"/>
     </sheetView>
   </sheetViews>
@@ -3955,7 +3955,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -3967,7 +3967,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3991,7 +3991,7 @@
         <v>12504</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D2" s="9">
         <v>500</v>
@@ -4000,7 +4000,7 @@
         <v>5000</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>22</v>
@@ -4030,7 +4030,7 @@
         <v>12504</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="9">
         <v>1000</v>
@@ -4039,7 +4039,7 @@
         <v>8000</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>22</v>
@@ -4069,7 +4069,7 @@
         <v>12504</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D4" s="9">
         <v>5000</v>
@@ -4078,7 +4078,7 @@
         <v>40000</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>22</v>
@@ -4156,7 +4156,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>22</v>
@@ -4195,7 +4195,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>22</v>
@@ -4234,7 +4234,7 @@
         <v>56</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>22</v>
@@ -4273,7 +4273,7 @@
         <v>66</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>22</v>
@@ -4312,7 +4312,7 @@
         <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>22</v>
@@ -4351,7 +4351,7 @@
         <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>22</v>
@@ -4390,7 +4390,7 @@
         <v>188</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>22</v>
@@ -4429,7 +4429,7 @@
         <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>22</v>
@@ -4468,7 +4468,7 @@
         <v>666</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>22</v>
@@ -4507,7 +4507,7 @@
         <v>888</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>22</v>
@@ -4546,7 +4546,7 @@
         <v>1000</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>22</v>

--- a/config_hlw/sys_task_management_type_1_config.xlsx
+++ b/config_hlw/sys_task_management_type_1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config1|金币场每日" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -46,66 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>狂欢场累计赢金5万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金15万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金30万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金70万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金100万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金150万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金500万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金1000万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金3000万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金6000万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金1亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金2.5亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金5亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金10亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金15亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game_Fishing3DHall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,118 +70,14 @@
     <t>ty_icon_flq5</t>
   </si>
   <si>
-    <t>狂欢场累计赢金10万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金800万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金2000万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金2亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金8亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金80亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金200亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金50万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金200万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金8000万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金20亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金50亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金150亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金300亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢场累计赢金500亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_icon_jb_98y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>福卡场累计获得福卡1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福卡场累计获得福卡3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福卡场累计获得福卡8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福卡场累计获得福卡15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福卡场累计获得福卡30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福卡场累计获得福卡65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福卡场累计获得福卡120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福卡场累计获得福卡200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福卡场累计获得福卡250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>福卡场累计获得福卡300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>福卡场累计获得福卡500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福卡场累计获得福卡1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>福卡场累计获得福卡5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,16 +152,139 @@
     <t>award_progress_lv|奖励阶段等级</t>
   </si>
   <si>
-    <t>福卡场累计获得福卡0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福卡场累计获得福卡0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福卡场累计获得福卡2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>累计获得福卡0.03</t>
+  </si>
+  <si>
+    <t>累计获得福卡0.5</t>
+  </si>
+  <si>
+    <t>累计获得福卡1</t>
+  </si>
+  <si>
+    <t>累计获得福卡3</t>
+  </si>
+  <si>
+    <t>累计获得福卡8</t>
+  </si>
+  <si>
+    <t>累计获得福卡15</t>
+  </si>
+  <si>
+    <t>累计获得福卡30</t>
+  </si>
+  <si>
+    <t>累计获得福卡65</t>
+  </si>
+  <si>
+    <t>累计获得福卡120</t>
+  </si>
+  <si>
+    <t>累计获得福卡200</t>
+  </si>
+  <si>
+    <t>累计获得福卡250</t>
+  </si>
+  <si>
+    <t>累计获得福卡300</t>
+  </si>
+  <si>
+    <t>累计获得福卡500</t>
+  </si>
+  <si>
+    <t>累计获得福卡1000</t>
+  </si>
+  <si>
+    <t>累计获得福卡2000</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金5万</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金15万</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金30万</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金70万</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金100万</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金150万</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金500万</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金1000万</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金3000万</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金6000万</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金1亿</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金2.5亿</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金5亿</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金10亿</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金15亿</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金10万</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金50万</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金200万</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金800万</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金2000万</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金8000万</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金2亿</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金8亿</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金20亿</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金50亿</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金80亿</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金150亿</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金200亿</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金300亿</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金500亿</t>
   </si>
 </sst>
 </file>
@@ -741,7 +700,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E16"/>
+      <selection activeCell="F2" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -766,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -778,7 +737,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -811,10 +770,10 @@
         <v>200</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -850,10 +809,10 @@
         <v>500</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -889,10 +848,10 @@
         <v>600</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
@@ -928,10 +887,10 @@
         <v>800</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
@@ -958,7 +917,7 @@
         <v>12501</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4">
         <v>1000000</v>
@@ -967,10 +926,10 @@
         <v>1000</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H6" s="3">
         <v>5</v>
@@ -997,7 +956,7 @@
         <v>12501</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4">
         <v>1500000</v>
@@ -1006,10 +965,10 @@
         <v>1500</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
@@ -1036,7 +995,7 @@
         <v>12501</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4">
         <v>5000000</v>
@@ -1045,10 +1004,10 @@
         <v>0.1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H8" s="3">
         <v>7</v>
@@ -1075,7 +1034,7 @@
         <v>12501</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4">
         <v>10000000</v>
@@ -1084,10 +1043,10 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H9" s="3">
         <v>8</v>
@@ -1114,7 +1073,7 @@
         <v>12501</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4">
         <v>30000000</v>
@@ -1123,10 +1082,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H10" s="3">
         <v>9</v>
@@ -1153,7 +1112,7 @@
         <v>12501</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4">
         <v>60000000</v>
@@ -1162,10 +1121,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H11" s="3">
         <v>10</v>
@@ -1192,7 +1151,7 @@
         <v>12501</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4">
         <v>100000000</v>
@@ -1201,10 +1160,10 @@
         <v>5</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H12" s="3">
         <v>11</v>
@@ -1231,7 +1190,7 @@
         <v>12501</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4">
         <v>250000000</v>
@@ -1240,10 +1199,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H13" s="3">
         <v>12</v>
@@ -1270,7 +1229,7 @@
         <v>12501</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4">
         <v>500000000</v>
@@ -1279,10 +1238,10 @@
         <v>20</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>13</v>
@@ -1309,7 +1268,7 @@
         <v>12501</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D15" s="4">
         <v>1000000000</v>
@@ -1318,10 +1277,10 @@
         <v>30</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H15" s="3">
         <v>14</v>
@@ -1348,7 +1307,7 @@
         <v>12501</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4">
         <v>1500000000</v>
@@ -1357,10 +1316,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H16" s="3">
         <v>15</v>
@@ -1804,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1829,7 +1788,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1841,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1874,10 +1833,10 @@
         <v>600</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -1904,7 +1863,7 @@
         <v>12502</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D3" s="9">
         <v>500000</v>
@@ -1913,10 +1872,10 @@
         <v>2000</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -1943,7 +1902,7 @@
         <v>12502</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D4" s="9">
         <v>2000000</v>
@@ -1952,10 +1911,10 @@
         <v>5000</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
@@ -1982,7 +1941,7 @@
         <v>12502</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D5" s="9">
         <v>8000000</v>
@@ -1991,10 +1950,10 @@
         <v>8000</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
@@ -2021,7 +1980,7 @@
         <v>12502</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D6" s="9">
         <v>20000000</v>
@@ -2030,10 +1989,10 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H6" s="3">
         <v>5</v>
@@ -2060,7 +2019,7 @@
         <v>12502</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D7" s="9">
         <v>80000000</v>
@@ -2069,10 +2028,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
@@ -2099,7 +2058,7 @@
         <v>12502</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D8" s="9">
         <v>200000000</v>
@@ -2108,10 +2067,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H8" s="3">
         <v>7</v>
@@ -2138,7 +2097,7 @@
         <v>12502</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D9" s="9">
         <v>800000000</v>
@@ -2147,10 +2106,10 @@
         <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H9" s="3">
         <v>8</v>
@@ -2177,7 +2136,7 @@
         <v>12502</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9">
         <v>2000000000</v>
@@ -2186,10 +2145,10 @@
         <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H10" s="3">
         <v>9</v>
@@ -2216,7 +2175,7 @@
         <v>12502</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D11" s="9">
         <v>5000000000</v>
@@ -2225,10 +2184,10 @@
         <v>108</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H11" s="3">
         <v>10</v>
@@ -2255,7 +2214,7 @@
         <v>12502</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D12" s="9">
         <v>8000000000</v>
@@ -2264,10 +2223,10 @@
         <v>388</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H12" s="3">
         <v>11</v>
@@ -2294,7 +2253,7 @@
         <v>12502</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D13" s="9">
         <v>15000000000</v>
@@ -2303,10 +2262,10 @@
         <v>588</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H13" s="3">
         <v>12</v>
@@ -2333,7 +2292,7 @@
         <v>12502</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D14" s="9">
         <v>20000000000</v>
@@ -2342,10 +2301,10 @@
         <v>888</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>13</v>
@@ -2372,7 +2331,7 @@
         <v>12502</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D15" s="9">
         <v>30000000000</v>
@@ -2381,10 +2340,10 @@
         <v>1888</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H15" s="3">
         <v>14</v>
@@ -2411,7 +2370,7 @@
         <v>12502</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D16" s="9">
         <v>50000000000</v>
@@ -2420,10 +2379,10 @@
         <v>2888</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H16" s="3">
         <v>15</v>
@@ -2867,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" activeCellId="1" sqref="C2:H7 E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2892,7 +2851,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2904,7 +2863,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -2937,10 +2896,10 @@
         <v>100</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -2976,10 +2935,10 @@
         <v>1000</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -3006,7 +2965,7 @@
         <v>12503</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4">
         <v>100</v>
@@ -3015,10 +2974,10 @@
         <v>2000</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
@@ -3045,7 +3004,7 @@
         <v>12503</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4">
         <v>300</v>
@@ -3054,10 +3013,10 @@
         <v>2500</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
@@ -3084,7 +3043,7 @@
         <v>12503</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4">
         <v>800</v>
@@ -3093,10 +3052,10 @@
         <v>5000</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H6" s="3">
         <v>5</v>
@@ -3123,7 +3082,7 @@
         <v>12503</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4">
         <v>1500</v>
@@ -3132,10 +3091,10 @@
         <v>6000</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
@@ -3162,7 +3121,7 @@
         <v>12503</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4">
         <v>3000</v>
@@ -3171,10 +3130,10 @@
         <v>0.6</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H8" s="3">
         <v>7</v>
@@ -3201,7 +3160,7 @@
         <v>12503</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4">
         <v>6500</v>
@@ -3210,10 +3169,10 @@
         <v>1.5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H9" s="3">
         <v>8</v>
@@ -3240,7 +3199,7 @@
         <v>12503</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4">
         <v>12000</v>
@@ -3249,10 +3208,10 @@
         <v>2.5</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H10" s="3">
         <v>9</v>
@@ -3279,7 +3238,7 @@
         <v>12503</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4">
         <v>20000</v>
@@ -3288,10 +3247,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H11" s="3">
         <v>10</v>
@@ -3318,7 +3277,7 @@
         <v>12503</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D12" s="4">
         <v>25000</v>
@@ -3327,10 +3286,10 @@
         <v>3</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H12" s="3">
         <v>11</v>
@@ -3357,7 +3316,7 @@
         <v>12503</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4">
         <v>30000</v>
@@ -3366,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H13" s="3">
         <v>12</v>
@@ -3396,7 +3355,7 @@
         <v>12503</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4">
         <v>50000</v>
@@ -3405,10 +3364,10 @@
         <v>4</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H14" s="3">
         <v>13</v>
@@ -3435,7 +3394,7 @@
         <v>12503</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
         <v>100000</v>
@@ -3444,10 +3403,10 @@
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H15" s="3">
         <v>14</v>
@@ -3474,7 +3433,7 @@
         <v>12503</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4">
         <v>200000</v>
@@ -3483,10 +3442,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H16" s="3">
         <v>15</v>
@@ -3955,7 +3914,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -3967,7 +3926,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3991,7 +3950,7 @@
         <v>12504</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="D2" s="9">
         <v>500</v>
@@ -4000,10 +3959,10 @@
         <v>5000</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -4030,7 +3989,7 @@
         <v>12504</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D3" s="9">
         <v>1000</v>
@@ -4039,10 +3998,10 @@
         <v>8000</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -4069,7 +4028,7 @@
         <v>12504</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D4" s="9">
         <v>5000</v>
@@ -4078,10 +4037,10 @@
         <v>40000</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
@@ -4108,7 +4067,7 @@
         <v>12504</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D5" s="9">
         <v>30000</v>
@@ -4117,10 +4076,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
@@ -4147,7 +4106,7 @@
         <v>12504</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7">
         <v>70000</v>
@@ -4156,10 +4115,10 @@
         <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H6" s="3">
         <v>5</v>
@@ -4186,7 +4145,7 @@
         <v>12504</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
         <v>150000</v>
@@ -4195,10 +4154,10 @@
         <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
@@ -4225,7 +4184,7 @@
         <v>12504</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
         <v>250000</v>
@@ -4234,10 +4193,10 @@
         <v>56</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H8" s="3">
         <v>7</v>
@@ -4264,7 +4223,7 @@
         <v>12504</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7">
         <v>400000</v>
@@ -4273,10 +4232,10 @@
         <v>66</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H9" s="3">
         <v>8</v>
@@ -4303,7 +4262,7 @@
         <v>12504</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
         <v>550000</v>
@@ -4312,10 +4271,10 @@
         <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H10" s="3">
         <v>9</v>
@@ -4342,7 +4301,7 @@
         <v>12504</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
         <v>1000000</v>
@@ -4351,10 +4310,10 @@
         <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H11" s="3">
         <v>10</v>
@@ -4381,7 +4340,7 @@
         <v>12504</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7">
         <v>2000000</v>
@@ -4390,10 +4349,10 @@
         <v>188</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H12" s="3">
         <v>11</v>
@@ -4420,7 +4379,7 @@
         <v>12504</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D13" s="9">
         <v>3500000</v>
@@ -4429,10 +4388,10 @@
         <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H13" s="3">
         <v>12</v>
@@ -4459,7 +4418,7 @@
         <v>12504</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
         <v>6000000</v>
@@ -4468,10 +4427,10 @@
         <v>666</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H14" s="3">
         <v>13</v>
@@ -4498,7 +4457,7 @@
         <v>12504</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D15" s="7">
         <v>8000000</v>
@@ -4507,10 +4466,10 @@
         <v>888</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H15" s="3">
         <v>14</v>
@@ -4537,7 +4496,7 @@
         <v>12504</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
         <v>10000000</v>
@@ -4546,10 +4505,10 @@
         <v>1000</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H16" s="3">
         <v>15</v>
